--- a/Vedha_Finance/Vedha_Finance.xlsx
+++ b/Vedha_Finance/Vedha_Finance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswaran\Downloads\Deepa\Vedha_Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Deepa\Git-Demo\Power_BI_Fetch\Power_BI_Examples\Vedha_Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Frst Name</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Urukkayal</t>
   </si>
   <si>
-    <t>Mohna</t>
-  </si>
-  <si>
     <t>Periyasamy</t>
   </si>
   <si>
@@ -123,6 +120,129 @@
   </si>
   <si>
     <t>Date Of Joining</t>
+  </si>
+  <si>
+    <t>Madappan</t>
+  </si>
+  <si>
+    <t>Selvaraj</t>
+  </si>
+  <si>
+    <t>Jothi</t>
+  </si>
+  <si>
+    <t>Puli</t>
+  </si>
+  <si>
+    <t>14/08/2012</t>
+  </si>
+  <si>
+    <t>Palanisamy(Tata Ace)</t>
+  </si>
+  <si>
+    <t>Murugan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kaliyappan , Rasammal</t>
+  </si>
+  <si>
+    <t>18/08/2012</t>
+  </si>
+  <si>
+    <t>19/08/2012</t>
+  </si>
+  <si>
+    <t>Mohana</t>
+  </si>
+  <si>
+    <t>13/01/2016</t>
+  </si>
+  <si>
+    <t>13/04/2013</t>
+  </si>
+  <si>
+    <t>27/12/2014</t>
+  </si>
+  <si>
+    <t>Gopal(Line man)</t>
+  </si>
+  <si>
+    <t>Kadapanallur</t>
+  </si>
+  <si>
+    <t>05/03/215</t>
+  </si>
+  <si>
+    <t>Srirangan</t>
+  </si>
+  <si>
+    <t>Chittra</t>
+  </si>
+  <si>
+    <t>Sankara</t>
+  </si>
+  <si>
+    <t>Vadivelan(Chandra)</t>
+  </si>
+  <si>
+    <t>Velan</t>
+  </si>
+  <si>
+    <t>NallaThambi</t>
+  </si>
+  <si>
+    <t>Thangmani</t>
+  </si>
+  <si>
+    <t>Maheswari</t>
+  </si>
+  <si>
+    <t>Periya Samy</t>
+  </si>
+  <si>
+    <t>Kulandaisamy</t>
+  </si>
+  <si>
+    <t>Kuppanasamy</t>
+  </si>
+  <si>
+    <t>Sembaie(Chandra)</t>
+  </si>
+  <si>
+    <t>Muthumani</t>
+  </si>
+  <si>
+    <t>Perumal</t>
+  </si>
+  <si>
+    <t>Velusamy</t>
+  </si>
+  <si>
+    <t>Krishnan</t>
+  </si>
+  <si>
+    <t>Essaiya</t>
+  </si>
+  <si>
+    <t>Kanaka(Savithri)</t>
+  </si>
+  <si>
+    <t>Sivakumar</t>
+  </si>
+  <si>
+    <t>Arusamy</t>
+  </si>
+  <si>
+    <t>Revathi</t>
+  </si>
+  <si>
+    <t>Gunasekaran</t>
+  </si>
+  <si>
+    <t>Subramaniyan</t>
+  </si>
+  <si>
+    <t>Rajendran</t>
   </si>
 </sst>
 </file>
@@ -188,16 +308,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,39 +606,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="32" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54" style="4" customWidth="1"/>
-    <col min="5" max="6" width="21.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="32" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54" style="3" customWidth="1"/>
+    <col min="5" max="6" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -526,394 +654,457 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9095769373</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8883695704</v>
+      </c>
+      <c r="G3" s="5">
+        <v>41068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9865432670</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8148212381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8526913012</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4">
-        <v>9095769373</v>
-      </c>
-      <c r="F3" s="4">
-        <v>8883695704</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9865196853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7845214680</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="5">
+        <v>41367</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8973391712</v>
+      </c>
+      <c r="F20" s="3">
+        <v>9791955407</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9965925140</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9629708550</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8870508127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7502217147</v>
+      </c>
+      <c r="G29" s="5">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9790324491</v>
+      </c>
+      <c r="G33" s="5">
+        <v>42462</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3">
+        <v>9976613628</v>
+      </c>
+      <c r="F34" s="3">
+        <v>7598670358</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7845201355</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E37" s="3">
         <v>9504471548</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="G37" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="3">
+        <v>9750534963</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="3">
+        <v>8526650888</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>7502217147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4">
-        <v>9790324491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="G42" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="3">
+        <v>8675254909</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8760634027</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="4">
-        <v>9965925140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4">
-        <v>7845214680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4">
-        <v>9750534963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4">
-        <v>9976613628</v>
-      </c>
-      <c r="F17" s="4">
-        <v>7598670358</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="4">
-        <v>8526913012</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="4">
-        <v>9629708550</v>
-      </c>
-      <c r="F19" s="4">
-        <v>8870508127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="E46" s="3">
         <v>9688443852</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A3:G47">
+    <sortCondition ref="B21"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
